--- a/SPRINTS/SPRINT SIMPLE PLAN TEAM.xlsx
+++ b/SPRINTS/SPRINT SIMPLE PLAN TEAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Desktop\PIM III DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3901FB-E21C-4842-B0C7-594AFE0E3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE61CB74-E582-4D8D-AC5E-E35F671A69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{794C1456-01DC-487A-A590-21D6CE54974D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
   <si>
     <t>Nª SPRINT</t>
   </si>
@@ -264,10 +264,82 @@
     <t>PEDRO</t>
   </si>
   <si>
-    <t>REVISÃI</t>
-  </si>
-  <si>
     <t>5.3</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
+  </si>
+  <si>
+    <t>TESTE INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>TESTES</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>IMPLEMENTAÇAO FUNC</t>
+  </si>
+  <si>
+    <t>NOVAS FUNCS</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIMIZAÇÃO </t>
+  </si>
+  <si>
+    <t>5 DIAS</t>
+  </si>
+  <si>
+    <t>MELHORIA</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>SPRINT 7</t>
+  </si>
+  <si>
+    <t>DOC DE USO</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>TESTES AUTOMATIZADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TESTES</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFATORAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL  </t>
+  </si>
+  <si>
+    <t>REFATORAÇÃO</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAREFA 4 </t>
+  </si>
+  <si>
+    <t>REVISÃO FINAL</t>
+  </si>
+  <si>
+    <t>REVISÃO</t>
+  </si>
+  <si>
+    <t>7.4</t>
   </si>
 </sst>
 </file>
@@ -415,8 +487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4322F06-6E13-4B16-AC88-E90486FDDB83}" name="Tabela1" displayName="Tabela1" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{C4322F06-6E13-4B16-AC88-E90486FDDB83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4322F06-6E13-4B16-AC88-E90486FDDB83}" name="Tabela1" displayName="Tabela1" ref="A1:H38" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H38" xr:uid="{C4322F06-6E13-4B16-AC88-E90486FDDB83}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B18E93AC-4745-4B0F-B04F-E04B8D025E1F}" name="Nª SPRINT" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FBAF2769-E938-4D62-BBBD-6058BF9A1E14}" name="Descrição" dataDxfId="6"/>
@@ -728,16 +800,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD2699-CBF7-4837-86D8-4EBA44D39E2D}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="8" width="17.28515625" customWidth="1"/>
   </cols>
@@ -1089,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>58</v>
@@ -1140,8 +1212,8 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>67</v>
@@ -1184,8 +1256,8 @@
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
@@ -1210,8 +1282,8 @@
       <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>27</v>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>75</v>
@@ -1240,31 +1312,309 @@
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
